--- a/programacion-entera/codigos/Datos/Datos_Problema-12.xlsx
+++ b/programacion-entera/codigos/Datos/Datos_Problema-12.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIMCP\Desktop\Prog-entera_Reyes\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Origenes" sheetId="1" r:id="rId1"/>
     <sheet name="Destinos" sheetId="2" r:id="rId2"/>
     <sheet name="Distancias (km)" sheetId="3" r:id="rId3"/>
-    <sheet name="Tiempos (min)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +73,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,22 +123,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,19 +432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -437,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -445,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -453,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -461,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -469,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -477,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -485,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -493,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -507,19 +532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -527,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -535,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -543,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -551,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -559,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -567,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -575,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -583,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -591,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -605,14 +630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -644,21 +669,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>425.304</v>
-      </c>
       <c r="D2">
         <v>201.624</v>
       </c>
       <c r="E2">
-        <v>271.159</v>
+        <v>271.15899999999999</v>
       </c>
       <c r="F2">
         <v>188.34</v>
@@ -669,40 +688,22 @@
       <c r="H2">
         <v>235.131</v>
       </c>
-      <c r="I2">
-        <v>532.286</v>
-      </c>
-      <c r="J2">
-        <v>443.637</v>
-      </c>
       <c r="K2">
         <v>186.684</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>423.984</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>487.661</v>
-      </c>
       <c r="E3">
-        <v>157.718</v>
+        <v>157.71799999999999</v>
       </c>
       <c r="F3">
-        <v>379.727</v>
+        <v>379.72699999999998</v>
       </c>
       <c r="G3">
-        <v>397.377</v>
-      </c>
-      <c r="H3">
-        <v>211.458</v>
+        <v>397.37700000000001</v>
       </c>
       <c r="I3">
         <v>112.926</v>
@@ -710,116 +711,68 @@
       <c r="J3">
         <v>194.464</v>
       </c>
-      <c r="K3">
-        <v>546.201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
         <v>198.89</v>
       </c>
-      <c r="C4">
-        <v>465.809</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>313.076</v>
-      </c>
-      <c r="F4">
-        <v>382.314</v>
-      </c>
-      <c r="G4">
-        <v>384.223</v>
-      </c>
-      <c r="H4">
-        <v>256.398</v>
-      </c>
-      <c r="I4">
-        <v>572.791</v>
+      <c r="H4" s="2">
+        <v>256.39800000000002</v>
       </c>
       <c r="J4">
-        <v>419.061</v>
+        <v>419.06099999999998</v>
       </c>
       <c r="K4">
-        <v>168.771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>168.77099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>268.766</v>
+        <v>268.76600000000002</v>
       </c>
       <c r="C5">
-        <v>155.814</v>
-      </c>
-      <c r="D5">
-        <v>333.116</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>155.81399999999999</v>
       </c>
       <c r="F5">
         <v>359.476</v>
       </c>
       <c r="G5">
-        <v>456.003</v>
+        <v>456.00299999999999</v>
       </c>
       <c r="H5">
-        <v>56.913</v>
-      </c>
-      <c r="I5">
-        <v>262.796</v>
+        <v>56.912999999999997</v>
       </c>
       <c r="J5">
         <v>178.441</v>
       </c>
-      <c r="K5">
-        <v>391.657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>186.295</v>
+        <v>186.29499999999999</v>
       </c>
       <c r="C6">
-        <v>376.922</v>
-      </c>
-      <c r="D6">
-        <v>384.667</v>
+        <v>376.92200000000003</v>
       </c>
       <c r="E6">
-        <v>359.886</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>359.88600000000002</v>
       </c>
       <c r="G6">
-        <v>35.858</v>
+        <v>35.857999999999997</v>
       </c>
       <c r="H6">
-        <v>348.219</v>
-      </c>
-      <c r="I6">
-        <v>483.905</v>
-      </c>
-      <c r="J6">
-        <v>549.622</v>
-      </c>
-      <c r="K6">
-        <v>369.728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>348.21899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -829,46 +782,25 @@
       <c r="C7">
         <v>394.44</v>
       </c>
-      <c r="D7">
-        <v>387.993</v>
-      </c>
-      <c r="E7">
-        <v>396.769</v>
-      </c>
       <c r="F7">
         <v>37.372</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>387.864</v>
-      </c>
-      <c r="I7">
-        <v>501.423</v>
-      </c>
-      <c r="J7">
-        <v>567.14</v>
-      </c>
-      <c r="K7">
-        <v>373.054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>387.86399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>233.088</v>
-      </c>
-      <c r="C8">
-        <v>208.756</v>
+        <v>233.08799999999999</v>
       </c>
       <c r="D8">
-        <v>275.569</v>
+        <v>275.56900000000002</v>
       </c>
       <c r="E8">
-        <v>56.023</v>
+        <v>56.023000000000003</v>
       </c>
       <c r="F8">
         <v>348.178</v>
@@ -876,518 +808,65 @@
       <c r="G8">
         <v>385.899</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>315.738</v>
-      </c>
       <c r="J8">
-        <v>212.706</v>
+        <v>212.70599999999999</v>
       </c>
       <c r="K8">
         <v>341.67</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>529.727</v>
-      </c>
       <c r="C9">
         <v>113.398</v>
       </c>
-      <c r="D9">
-        <v>593.404</v>
-      </c>
-      <c r="E9">
-        <v>263.462</v>
-      </c>
-      <c r="F9">
-        <v>485.471</v>
-      </c>
-      <c r="G9">
-        <v>503.121</v>
-      </c>
-      <c r="H9">
-        <v>317.201</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="J9">
-        <v>278.876</v>
-      </c>
-      <c r="K9">
-        <v>651.945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>278.87599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>441.758</v>
-      </c>
       <c r="C10">
-        <v>191.052</v>
+        <v>191.05199999999999</v>
       </c>
       <c r="D10">
-        <v>417.325</v>
+        <v>417.32499999999999</v>
       </c>
       <c r="E10">
-        <v>178.189</v>
-      </c>
-      <c r="F10">
-        <v>549.48</v>
-      </c>
-      <c r="G10">
-        <v>567.13</v>
-      </c>
+        <v>178.18899999999999</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10">
-        <v>212.324</v>
+        <v>212.32400000000001</v>
       </c>
       <c r="I10">
-        <v>277.549</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>550.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>277.54899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>185.086</v>
-      </c>
-      <c r="C11">
-        <v>517.456</v>
+        <v>185.08600000000001</v>
       </c>
       <c r="D11">
-        <v>168.651</v>
-      </c>
-      <c r="E11">
-        <v>364.723</v>
-      </c>
-      <c r="F11">
-        <v>368.509</v>
-      </c>
-      <c r="G11">
-        <v>370.418</v>
-      </c>
+        <v>168.65100000000001</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11">
-        <v>315.618</v>
-      </c>
-      <c r="I11">
-        <v>624.439</v>
-      </c>
-      <c r="J11">
-        <v>524.125</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>445.2</v>
-      </c>
-      <c r="D2">
-        <v>209.85</v>
-      </c>
-      <c r="E2">
-        <v>304.866666666667</v>
-      </c>
-      <c r="F2">
-        <v>195.633333333333</v>
-      </c>
-      <c r="G2">
-        <v>200.05</v>
-      </c>
-      <c r="H2">
-        <v>261.966666666667</v>
-      </c>
-      <c r="I2">
-        <v>555.666666666667</v>
-      </c>
-      <c r="J2">
-        <v>489.9</v>
-      </c>
-      <c r="K2">
-        <v>197.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>442.416666666667</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>489.016666666667</v>
-      </c>
-      <c r="E3">
-        <v>146.783333333333</v>
-      </c>
-      <c r="F3">
-        <v>391.35</v>
-      </c>
-      <c r="G3">
-        <v>406.5</v>
-      </c>
-      <c r="H3">
-        <v>203</v>
-      </c>
-      <c r="I3">
-        <v>134.333333333333</v>
-      </c>
-      <c r="J3">
-        <v>213.2</v>
-      </c>
-      <c r="K3">
-        <v>553.583333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>208</v>
-      </c>
-      <c r="C4">
-        <v>458.6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>326.633333333333</v>
-      </c>
-      <c r="F4">
-        <v>381.816666666667</v>
-      </c>
-      <c r="G4">
-        <v>386.25</v>
-      </c>
-      <c r="H4">
-        <v>269.9</v>
-      </c>
-      <c r="I4">
-        <v>569.083333333333</v>
-      </c>
-      <c r="J4">
-        <v>455.916666666667</v>
-      </c>
-      <c r="K4">
-        <v>177.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>301.833333333333</v>
-      </c>
-      <c r="C5">
-        <v>147.2</v>
-      </c>
-      <c r="D5">
-        <v>355.216666666667</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>403</v>
-      </c>
-      <c r="G5">
-        <v>448.666666666667</v>
-      </c>
-      <c r="H5">
-        <v>69.1833333333333</v>
-      </c>
-      <c r="I5">
-        <v>257.683333333333</v>
-      </c>
-      <c r="J5">
-        <v>206.233333333333</v>
-      </c>
-      <c r="K5">
-        <v>419.783333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>193.466666666667</v>
-      </c>
-      <c r="C6">
-        <v>397.65</v>
-      </c>
-      <c r="D6">
-        <v>387.35</v>
-      </c>
-      <c r="E6">
-        <v>405.366666666667</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>53.5666666666667</v>
-      </c>
-      <c r="H6">
-        <v>407.1</v>
-      </c>
-      <c r="I6">
-        <v>508.116666666667</v>
-      </c>
-      <c r="J6">
-        <v>573.233333333333</v>
-      </c>
-      <c r="K6">
-        <v>374.616666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>194.766666666667</v>
-      </c>
-      <c r="C7">
-        <v>412.65</v>
-      </c>
-      <c r="D7">
-        <v>388.65</v>
-      </c>
-      <c r="E7">
-        <v>454.283333333333</v>
-      </c>
-      <c r="F7">
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>428.266666666667</v>
-      </c>
-      <c r="I7">
-        <v>523.133333333333</v>
-      </c>
-      <c r="J7">
-        <v>588.233333333333</v>
-      </c>
-      <c r="K7">
-        <v>375.916666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>261.783333333333</v>
-      </c>
-      <c r="C8">
-        <v>199.966666666667</v>
-      </c>
-      <c r="D8">
-        <v>296.833333333333</v>
-      </c>
-      <c r="E8">
-        <v>68</v>
-      </c>
-      <c r="F8">
-        <v>402.166666666667</v>
-      </c>
-      <c r="G8">
-        <v>426.416666666667</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>310.45</v>
-      </c>
-      <c r="J8">
-        <v>234.666666666667</v>
-      </c>
-      <c r="K8">
-        <v>366.633333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>551.583333333333</v>
-      </c>
-      <c r="C9">
-        <v>133.183333333333</v>
-      </c>
-      <c r="D9">
-        <v>598.183333333333</v>
-      </c>
-      <c r="E9">
-        <v>255.95</v>
-      </c>
-      <c r="F9">
-        <v>500.5</v>
-      </c>
-      <c r="G9">
-        <v>515.666666666667</v>
-      </c>
-      <c r="H9">
-        <v>312.15</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>297.55</v>
-      </c>
-      <c r="K9">
-        <v>662.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>490.8</v>
-      </c>
-      <c r="C10">
-        <v>214.133333333333</v>
-      </c>
-      <c r="D10">
-        <v>463.183333333333</v>
-      </c>
-      <c r="E10">
-        <v>206.833333333333</v>
-      </c>
-      <c r="F10">
-        <v>568.283333333333</v>
-      </c>
-      <c r="G10">
-        <v>583.45</v>
-      </c>
-      <c r="H10">
-        <v>236.75</v>
-      </c>
-      <c r="I10">
-        <v>300.05</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>595.633333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>195.633333333333</v>
-      </c>
-      <c r="C11">
-        <v>528.166666666667</v>
-      </c>
-      <c r="D11">
-        <v>183.783333333333</v>
-      </c>
-      <c r="E11">
-        <v>396.2</v>
-      </c>
-      <c r="F11">
-        <v>369.466666666667</v>
-      </c>
-      <c r="G11">
-        <v>373.883333333333</v>
-      </c>
-      <c r="H11">
-        <v>343.216666666667</v>
-      </c>
-      <c r="I11">
-        <v>638.633333333333</v>
-      </c>
-      <c r="J11">
-        <v>571.15</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
+        <v>315.61799999999999</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
